--- a/Eichel etal data/elife-52654-fig7-data4-v2.xlsx
+++ b/Eichel etal data/elife-52654-fig7-data4-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/PyCharm/Channel_coexpression/Eichel etal data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/Projects/PyCharm/Channel_coexpression/Eichel etal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1592B19-E9D9-4D42-B6BA-653A6BC16C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5722E12B-960E-4E4E-A859-10379D34FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="800" windowWidth="20980" windowHeight="16440" activeTab="1" xr2:uid="{D7FACC1C-4B7B-874E-93BC-A4537CCBA381}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B82F4B2-C3C2-7A4D-9866-D52948F51C01}">
   <dimension ref="B2:AG23"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="D27" workbookViewId="0">
       <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
@@ -2615,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C52C677-B71A-CC4A-B83F-A4309D6A9987}">
-  <dimension ref="B2:AG23"/>
+  <dimension ref="B2:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y4" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4642,6 +4642,12 @@
         <v>0.29899823144845755</v>
       </c>
     </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AG25">
+        <f>AVERAGE(AG13:AG23)</f>
+        <v>0.38056481505418915</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Eichel etal data/elife-52654-fig7-data4-v2.xlsx
+++ b/Eichel etal data/elife-52654-fig7-data4-v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/Projects/PyCharm/Channel_coexpression/Eichel etal data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/PyCharm/Channel_coexpression/Eichel etal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5722E12B-960E-4E4E-A859-10379D34FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20388BF5-BCF3-A449-BF75-7736FC90772D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="800" windowWidth="20980" windowHeight="16440" activeTab="1" xr2:uid="{D7FACC1C-4B7B-874E-93BC-A4537CCBA381}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7FACC1C-4B7B-874E-93BC-A4537CCBA381}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 7g" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>Condition</t>
   </si>
@@ -103,10 +103,13 @@
     <t>error sh</t>
   </si>
   <si>
-    <t>current difference</t>
+    <t>conductance fraction</t>
   </si>
   <si>
-    <t>conductance loss,decimal parts</t>
+    <t>current fraction</t>
+  </si>
+  <si>
+    <t>avvg fraction</t>
   </si>
 </sst>
 </file>
@@ -129,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,8 +159,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B82F4B2-C3C2-7A4D-9866-D52948F51C01}">
-  <dimension ref="B2:AG23"/>
+  <dimension ref="B2:AG25"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="AG5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.2">
@@ -1113,8 +1123,8 @@
         <v>0.55862985363260476</v>
       </c>
       <c r="AG7" cm="1">
-        <f t="array" ref="AG7:AG23">(AC7:AC23-AD7:AD23)/(AC7:AC23)</f>
-        <v>0.46491543411757474</v>
+        <f t="array" ref="AG7:AG23">(AD7:AD23)/(AC7:AC23)</f>
+        <v>0.53508456588242526</v>
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.2">
@@ -1206,7 +1216,7 @@
         <v>0.60056104638449948</v>
       </c>
       <c r="AG8">
-        <v>5.1346097586807124E-2</v>
+        <v>0.94865390241319292</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.2">
@@ -1301,7 +1311,7 @@
         <v>0.23569352695954293</v>
       </c>
       <c r="AG9">
-        <v>9.6748509982172201E-2</v>
+        <v>0.90325149001782779</v>
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.2">
@@ -1393,7 +1403,7 @@
         <v>0.50135681230914531</v>
       </c>
       <c r="AG10">
-        <v>-0.4038298143540005</v>
+        <v>1.4038298143540004</v>
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.2">
@@ -1488,7 +1498,7 @@
         <v>0.84292983523773313</v>
       </c>
       <c r="AG11">
-        <v>6.1119229643148844E-2</v>
+        <v>0.93888077035685114</v>
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.2">
@@ -1583,7 +1593,7 @@
         <v>0.38184444628881747</v>
       </c>
       <c r="AG12">
-        <v>0.10719217901632375</v>
+        <v>0.89280782098367628</v>
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.2">
@@ -1675,7 +1685,7 @@
         <v>0.34288025102074426</v>
       </c>
       <c r="AG13">
-        <v>0.3619840482249374</v>
+        <v>0.63801595177506265</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.2">
@@ -1767,7 +1777,7 @@
         <v>0.20729227562923314</v>
       </c>
       <c r="AG14">
-        <v>0.33503154570468541</v>
+        <v>0.66496845429531459</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.2">
@@ -1862,7 +1872,7 @@
         <v>0.72373571662469427</v>
       </c>
       <c r="AG15">
-        <v>0.38614805070672292</v>
+        <v>0.61385194929327702</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.2">
@@ -1957,7 +1967,7 @@
         <v>7.0925290861947792</v>
       </c>
       <c r="AG16">
-        <v>0.56676524326449362</v>
+        <v>0.43323475673550638</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.2">
@@ -2049,7 +2059,7 @@
         <v>6.05207966636807</v>
       </c>
       <c r="AG17">
-        <v>0.53297602198261629</v>
+        <v>0.46702397801738377</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.2">
@@ -2144,7 +2154,7 @@
         <v>4.7763738902991753</v>
       </c>
       <c r="AG18">
-        <v>0.47030011741293803</v>
+        <v>0.52969988258706202</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.2">
@@ -2239,7 +2249,7 @@
         <v>3.2087475156131458</v>
       </c>
       <c r="AG19">
-        <v>0.46926534453620888</v>
+        <v>0.53073465546379106</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.2">
@@ -2334,7 +2344,7 @@
         <v>3.1441088845425615</v>
       </c>
       <c r="AG20">
-        <v>0.42124327376788473</v>
+        <v>0.57875672623211527</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.2">
@@ -2426,7 +2436,7 @@
         <v>2.5403032015956755</v>
       </c>
       <c r="AG21">
-        <v>0.39183151067081623</v>
+        <v>0.60816848932918377</v>
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.2">
@@ -2512,7 +2522,7 @@
         <v>2.3774520488735273</v>
       </c>
       <c r="AG22">
-        <v>0.39641934292930892</v>
+        <v>0.60358065707069108</v>
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.2">
@@ -2604,7 +2614,13 @@
         <v>1.5322940210569094</v>
       </c>
       <c r="AG23">
-        <v>0.45806187781052732</v>
+        <v>0.54193812218947268</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AG25">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(AG7))</f>
+        <v>0.69602835217628423</v>
       </c>
     </row>
   </sheetData>
@@ -2617,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C52C677-B71A-CC4A-B83F-A4309D6A9987}">
   <dimension ref="B2:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3056,7 +3072,7 @@
         <v>13</v>
       </c>
       <c r="AG6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.2">
@@ -3151,8 +3167,8 @@
         <v>3.4317544975015365E-3</v>
       </c>
       <c r="AG7" cm="1">
-        <f t="array" ref="AG7:AG23">(AC7:AC23-AD7:AD23)/(AC7:AC23)</f>
-        <v>0.4169018056304713</v>
+        <f t="array" ref="AG7:AG23">(AD7:AD23)/(AC7:AC23)</f>
+        <v>0.5830981943695287</v>
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.2">
@@ -3244,7 +3260,7 @@
         <v>3.9622435047732994E-3</v>
       </c>
       <c r="AG8">
-        <v>-7.8752703073279116E-3</v>
+        <v>1.0078752703073279</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.2">
@@ -3339,7 +3355,7 @@
         <v>1.647027365417608E-3</v>
       </c>
       <c r="AG9">
-        <v>5.5000541151789387E-2</v>
+        <v>0.94499945884821057</v>
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.2">
@@ -3431,7 +3447,7 @@
         <v>3.72814083554565E-3</v>
       </c>
       <c r="AG10">
-        <v>-0.49187649506265485</v>
+        <v>1.4918764950626549</v>
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.2">
@@ -3526,7 +3542,7 @@
         <v>6.7844143870731469E-3</v>
       </c>
       <c r="AG11">
-        <v>-6.8493929434452802E-2</v>
+        <v>1.0684939294344529</v>
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.2">
@@ -3621,7 +3637,7 @@
         <v>3.4726255976799771E-3</v>
       </c>
       <c r="AG12">
-        <v>-2.8341727061475867E-2</v>
+        <v>1.0283417270614759</v>
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.2">
@@ -3713,7 +3729,7 @@
         <v>3.3100652102009912E-3</v>
       </c>
       <c r="AG13">
-        <v>0.27635354189735362</v>
+        <v>0.72364645810264638</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.2">
@@ -3805,7 +3821,7 @@
         <v>2.3993930052503246E-3</v>
       </c>
       <c r="AG14">
-        <v>0.25921335012260777</v>
+        <v>0.74078664987739229</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.2">
@@ -3900,7 +3916,7 @@
         <v>8.4020903011132013E-3</v>
       </c>
       <c r="AG15">
-        <v>0.32514332976872373</v>
+        <v>0.67485667023127627</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.2">
@@ -3995,7 +4011,7 @@
         <v>8.4998224575058789E-2</v>
       </c>
       <c r="AG16">
-        <v>0.52193506765241415</v>
+        <v>0.47806493234758585</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.2">
@@ -4087,7 +4103,7 @@
         <v>8.3966358305763919E-2</v>
       </c>
       <c r="AG17">
-        <v>0.49634781651095627</v>
+        <v>0.50365218348904373</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.2">
@@ -4182,7 +4198,7 @@
         <v>7.8835761523762801E-2</v>
       </c>
       <c r="AG18">
-        <v>0.43919829640715713</v>
+        <v>0.56080170359284287</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.2">
@@ -4277,7 +4293,7 @@
         <v>6.1296938123807813E-2</v>
       </c>
       <c r="AG19">
-        <v>0.44696918203276093</v>
+        <v>0.55303081796723907</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.2">
@@ -4372,7 +4388,7 @@
         <v>7.3188995628184636E-2</v>
       </c>
       <c r="AG20">
-        <v>0.39550688396317962</v>
+        <v>0.60449311603682043</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.2">
@@ -4464,7 +4480,7 @@
         <v>7.0900399743450235E-2</v>
       </c>
       <c r="AG21">
-        <v>0.36267360142842259</v>
+        <v>0.63732639857157747</v>
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.2">
@@ -4550,7 +4566,7 @@
         <v>8.8033271182217418E-2</v>
       </c>
       <c r="AG22">
-        <v>0.36387366436404706</v>
+        <v>0.63612633563595289</v>
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.2">
@@ -4639,13 +4655,16 @@
         <v>0.13751841036887322</v>
       </c>
       <c r="AG23">
-        <v>0.29899823144845755</v>
+        <v>0.70100176855154239</v>
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="AG25">
+      <c r="AF25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG25" s="1">
         <f>AVERAGE(AG13:AG23)</f>
-        <v>0.38056481505418915</v>
+        <v>0.61943518494581096</v>
       </c>
     </row>
   </sheetData>

--- a/Eichel etal data/elife-52654-fig7-data4-v2.xlsx
+++ b/Eichel etal data/elife-52654-fig7-data4-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/PyCharm/Channel_coexpression/Eichel etal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20388BF5-BCF3-A449-BF75-7736FC90772D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAAE794-5DDC-FF44-9E92-B37F50A6A1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7FACC1C-4B7B-874E-93BC-A4537CCBA381}"/>
+    <workbookView xWindow="11200" yWindow="5900" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7FACC1C-4B7B-874E-93BC-A4537CCBA381}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 7g" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B82F4B2-C3C2-7A4D-9866-D52948F51C01}">
   <dimension ref="B2:AG25"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2633,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C52C677-B71A-CC4A-B83F-A4309D6A9987}">
   <dimension ref="B2:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF25" sqref="AF25"/>
+    <sheetView tabSelected="1" topLeftCell="P13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4663,8 +4663,8 @@
         <v>16</v>
       </c>
       <c r="AG25" s="1">
-        <f>AVERAGE(AG13:AG23)</f>
-        <v>0.61943518494581096</v>
+        <f>AVERAGE(_xlfn.ANCHORARRAY(AG7))</f>
+        <v>0.76108659467573947</v>
       </c>
     </row>
   </sheetData>
